--- a/biology/Botanique/Coriaria_terminalis/Coriaria_terminalis.xlsx
+++ b/biology/Botanique/Coriaria_terminalis/Coriaria_terminalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Coriaria terminalis est une espèce de plantes dicotylédones de la famille des Coriariaceae, originaire de l'Himalaya (Chine, Bhoutan, Inde, Népal). C'est un arbrisseau ou sous-arbrisseau, pouvant atteindre 1 mètre de haut, aux feuilles caduques, opposées ou verticillées, qui produit des faux-fruits charnus contenant des akènes. Toutes les parties de la plante, y compris les graines, sont toxiques du fait de la présence de tutine, toxine qui attaque le système nerveux central.
@@ -514,11 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonyme
-Selon The Plant List            (9 octobre 2020)[1] :
-Coriaria terminalis var. terminalis
-Variétés
-Selon Tropicos                                           (9 octobre 2020)[2] (Attention liste brute contenant possiblement des synonymes) :
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (9 octobre 2020) :
+Coriaria terminalis var. terminalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coriaria_terminalis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coriaria_terminalis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (9 octobre 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Coriaria terminalis var. terminalis
 variété Coriaria terminalis var. xanthocarpa Rehder &amp; E.H. Wilson</t>
         </is>
